--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -106,22 +106,22 @@
     <t>well</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>community</t>
   </si>
   <si>
     <t>hand</t>
@@ -1272,25 +1272,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6753246753246753</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="N20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1298,13 +1298,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1376,25 +1376,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.588957055214724</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L24">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1402,13 +1402,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.574468085106383</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="10:17">
